--- a/statistics/R/roiObjectLvl_Within-PLI_gamma_A/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_gamma_A/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.011608234434321407</v>
+        <v>0.010640881564794646</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002669267491401839</v>
+        <v>0.002446828533785056</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.006975687550722587</v>
+        <v>-0.006394380254829052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008481442642933268</v>
+        <v>0.007774655756022181</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0034995585849622313</v>
+        <v>-0.003207928702882057</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006829200024784959</v>
+        <v>0.006260100022719567</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009988653637417466</v>
+        <v>0.009156265834299349</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0018509116426544125</v>
+        <v>0.0016966690057665934</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.005271278471863039</v>
+        <v>-0.004832005265874545</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01087602366374743</v>
+        <v>0.00996968835843512</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.007888530906433738</v>
+        <v>-0.0072311533308975495</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.004119063893499947</v>
+        <v>-0.0037758085690416388</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0039055646472526684</v>
+        <v>0.003580100926648261</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0016909863591786367</v>
+        <v>0.0015500708292470466</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.006132480960856279</v>
+        <v>-0.005621440880784895</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0050108908804561425</v>
+        <v>0.004593316640418038</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.0998114522143294E-4</v>
+        <v>-2.8414938311965843E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0046076785207219695</v>
+        <v>0.004223705310661796</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006115278786086281</v>
+        <v>0.005605672220579033</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.001683976980419638</v>
+        <v>-0.0015436455653846382</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.005355120343678771</v>
+        <v>-0.004908860315038899</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.017784105564079222</v>
+        <v>-0.016302096767072588</v>
       </c>
       <c r="G5" t="n">
-        <v>0.013295922782815328</v>
+        <v>0.01218792921758069</v>
       </c>
       <c r="H5" t="n">
-        <v>0.015560913549753391</v>
+        <v>0.014264170753940625</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0035063730715905184</v>
+        <v>-0.0032141753156246233</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.006605801778779702</v>
+        <v>-0.0060553182972147845</v>
       </c>
       <c r="E6" t="n">
-        <v>0.014590637628469377</v>
+        <v>0.01337475115943021</v>
       </c>
       <c r="F6" t="n">
-        <v>0.010303005699425188</v>
+        <v>0.009444421891139726</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002907731479159986</v>
+        <v>0.002665420522563383</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.004528832427383167</v>
+        <v>-0.004151429725101269</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0011468771684528256</v>
+        <v>-0.00105130407108181</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01716641062142102</v>
+        <v>-0.01573587640296928</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.006545686387583599</v>
+        <v>-0.006000212521951626</v>
       </c>
       <c r="F7" t="n">
-        <v>0.011895351025785816</v>
+        <v>0.010904071773636975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0028673491794609374</v>
+        <v>-0.002628403414505931</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006419414493948644</v>
+        <v>0.005884463286119551</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.002207890954693925</v>
+        <v>-0.002023900041802751</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0037618715154947024</v>
+        <v>0.003448382222536822</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007204525786306315</v>
+        <v>0.006604148637447432</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.003697858770322582</v>
+        <v>-0.0033897038727956907</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006571409676999734</v>
+        <v>0.006023792203916384</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002609994004921512</v>
+        <v>0.0023924945045114</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.004633283474686611</v>
+        <v>-0.004247176518462736</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.003210280669707688</v>
+        <v>-0.002942757280565367</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005886664163809063</v>
+        <v>0.005396108816825007</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0018059426962118708</v>
+        <v>-0.001655447471527599</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008045043385661782</v>
+        <v>0.007374623103523298</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0036360756231084146</v>
+        <v>-0.0033330693211826856</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006498884138635669</v>
+        <v>0.005957310460416032</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0071200729095466375</v>
+        <v>-0.006526733500417797</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007324594902234666</v>
+        <v>0.006714211993715108</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.6660155498310347E-5</v>
+        <v>-1.5271809206768294E-5</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00877036927761568</v>
+        <v>-0.008039505171147654</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00437835213136642</v>
+        <v>0.004013489453752517</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.562894432459778E-4</v>
+        <v>7.84931989642107E-4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.005974257118421894</v>
+        <v>0.0054764023585534005</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.005521048999309858</v>
+        <v>-0.005060961582700724</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.00387278865539728</v>
+        <v>-0.00355005626744756</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0033094924399272307</v>
+        <v>0.0030337014032665865</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0013542549774433754</v>
+        <v>-0.0012414003959897724</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.005098109789185318</v>
+        <v>-0.004673267306753243</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01097453078938418</v>
+        <v>0.010059986556935477</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.005158154847595825</v>
+        <v>-0.004728308610296161</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0016782734174038694</v>
+        <v>-0.0015384172992868872</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.004124651669898199</v>
+        <v>-0.003780930697406648</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0033090902656119636</v>
+        <v>0.0030333327434776125</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0025368097450476634</v>
+        <v>-0.0023254089329603767</v>
       </c>
       <c r="D13" t="n">
-        <v>0.016082195973500357</v>
+        <v>0.014742012975708624</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0010432867412272229</v>
+        <v>-9.563461794583339E-4</v>
       </c>
       <c r="F13" t="n">
-        <v>0.007418125352908006</v>
+        <v>0.0067999482401656375</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.006516765574736572</v>
+        <v>-0.0059737017768418665</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0016074695708562792</v>
+        <v>0.001473513773284918</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.009923273950189021</v>
+        <v>-0.009096334454339994</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0032990359077315623</v>
+        <v>0.0030241162487538997</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0011688626595459106</v>
+        <v>-0.0010714574379170894</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00758273967992637</v>
+        <v>0.006950844706599124</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.006919963441702565</v>
+        <v>-0.006343299821560677</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.00775407313615481</v>
+        <v>-0.007107900374808546</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01098354655666911</v>
+        <v>0.010068251010280027</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0019620363823262543</v>
+        <v>-0.0017985333504657308</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.002234222861878965</v>
+        <v>-0.002048037623389093</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.005886417785731263</v>
+        <v>-0.0053958829702537014</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005180680488748368</v>
+        <v>0.004748957114686009</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0032072367476093933</v>
+        <v>0.002939967018641937</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002255054791286709</v>
+        <v>-0.0020671335586794626</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.266677893680071E-4</v>
+        <v>-3.911121402540574E-4</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.007665746796181594</v>
+        <v>-0.007026934563166498</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.004698835362450915</v>
+        <v>-0.0043072657489133526</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.00247067045486013</v>
+        <v>-0.0022647812502885334</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.002513975872884683</v>
+        <v>-0.0023044778834776236</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007296045339523577</v>
+        <v>0.006688041561229985</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.004445142594864726</v>
+        <v>-0.0040747140452926656</v>
       </c>
       <c r="E17" t="n">
-        <v>4.612178525222055E-4</v>
+        <v>4.227830314786629E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.023917067400018E-5</v>
+        <v>-3.688590645109513E-5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0076168771820945835</v>
+        <v>0.006982137416920053</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0011657620353273113</v>
+        <v>0.0010686151990500492</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.002135196357164304</v>
+        <v>0.001957263327400635</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.002836943667280392</v>
+        <v>-0.0026005316950070134</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0029213193109185742</v>
+        <v>0.0026778760350087416</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.009097357562830713</v>
+        <v>-0.008339244432594789</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006028414879346564</v>
+        <v>0.005526046972734344</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004433569650960992</v>
+        <v>0.004064105513380864</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004135558483384594</v>
+        <v>0.00379092860976922</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0054333150252295626</v>
+        <v>0.004980538773127097</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0025794898983305115</v>
+        <v>0.002364532406802941</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0020368871492844887</v>
+        <v>0.001867146553510765</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.516728142927641E-4</v>
+        <v>-5.973667464350824E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>-8.611460224363376E-4</v>
+        <v>-7.89383853899997E-4</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.006400661680164815</v>
+        <v>-0.005867273206817722</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0015818442591898074</v>
+        <v>-0.0014500239042573027</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.006086573115558602</v>
+        <v>-0.005579358689262057</v>
       </c>
       <c r="F20" t="n">
-        <v>0.008107479335100892</v>
+        <v>0.007431856057175737</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.005567701219875126</v>
+        <v>-0.005103726118218882</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0030663648858753056</v>
+        <v>0.002810834478719021</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.004019351845438807</v>
+        <v>-0.00368440585831889</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01310929514590839</v>
+        <v>-0.012016853883749401</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.008022703674877577</v>
+        <v>-0.007354145035304474</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.007323149771662346</v>
+        <v>-0.006712887290690472</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.003063901519279072</v>
+        <v>-0.002808576392672457</v>
       </c>
       <c r="H21" t="n">
-        <v>4.622395926743572E-4</v>
+        <v>4.2371962661819085E-4</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>8.132405830615086E-4</v>
+        <v>7.454705344730195E-4</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0010640610731190436</v>
+        <v>-9.753893170258016E-4</v>
       </c>
       <c r="E22" t="n">
-        <v>2.932581983965399E-4</v>
+        <v>2.68820015196819E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007912325182482763</v>
+        <v>-0.007252964750609159</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0025059826302062105</v>
+        <v>0.0022971507443557276</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.392249769061384E-4</v>
+        <v>-3.1095622883060836E-4</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0024108665413013486</v>
+        <v>0.0022099609961929445</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.021198555981164685</v>
+        <v>-0.019432009649400922</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.004358700582956843</v>
+        <v>-0.003995475534377124</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01390873130003567</v>
+        <v>0.012749670358366022</v>
       </c>
       <c r="G23" t="n">
-        <v>0.008859746846016814</v>
+        <v>0.00812143460884876</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008896509855589124</v>
+        <v>0.008155134034289996</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>9.148052626313519E-4</v>
+        <v>8.385714907453989E-4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.008588757063204028</v>
+        <v>-0.007873027307937028</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.0037957211870255497</v>
+        <v>-0.003479411088106704</v>
       </c>
       <c r="F24" t="n">
-        <v>7.231517529000531E-4</v>
+        <v>6.628891068250209E-4</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005476788657566678</v>
+        <v>-0.005020389602769473</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0017817803858993647</v>
+        <v>-0.0016332986870744165</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0011679839266046377</v>
+        <v>-0.0010706519327209063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0019406758537193203</v>
+        <v>0.0017789528659093862</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0041326681642887275</v>
+        <v>0.003788279150597984</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002683372248589652</v>
+        <v>0.002459757894540504</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00442096749267841</v>
+        <v>0.004052553534955178</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0017113651624521276</v>
+        <v>0.0015687513989144641</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008374489877159608</v>
+        <v>0.007676615720729585</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008582552060812904</v>
+        <v>0.007867339389078506</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00301911398168081</v>
+        <v>0.0027675211498740804</v>
       </c>
       <c r="F26" t="n">
-        <v>0.007046675719036</v>
+        <v>0.006459452742449634</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004970204245566559</v>
+        <v>0.004556020558436</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0028700618001556433</v>
+        <v>-0.0026308899834759925</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0012880161621580538</v>
+        <v>0.0011806814819782102</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0027113145915586834</v>
+        <v>0.0024853717089288047</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005183516984759232</v>
+        <v>0.004751557236029297</v>
       </c>
       <c r="F27" t="n">
-        <v>1.339566556957661E-4</v>
+        <v>1.2279360105448E-4</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.00607524520567998</v>
+        <v>-0.0055689747718733335</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.004245069462460768</v>
+        <v>-0.0038913136739223697</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00785054030395646</v>
+        <v>0.007196328611960082</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.003474285381718789</v>
+        <v>-0.003184761599908853</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.007883660057573127</v>
+        <v>-0.0072266883861087094</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0033918376309680642</v>
+        <v>-0.003109184495054068</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.005697499366102837</v>
+        <v>-0.005222707752260941</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001602617331517564</v>
+        <v>0.001469065887224466</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0025665283102354053</v>
+        <v>-0.0023526509510490984</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.005225244355679087</v>
+        <v>-0.004789807326039175</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.003999741318581912</v>
+        <v>-0.003666429542033431</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.92415550229525E-4</v>
+        <v>-9.097142543770392E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.003202872146971514</v>
+        <v>0.002935966134723883</v>
       </c>
       <c r="H29" t="n">
-        <v>0.010132379697597088</v>
+        <v>0.00928801472279732</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003994684972945806</v>
+        <v>0.003661794558533729</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0019171486562790663</v>
+        <v>-0.0017573862682558061</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0026621059229754718</v>
+        <v>0.002440263762727518</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.007369650847911746</v>
+        <v>-0.006755513277252406</v>
       </c>
       <c r="G30" t="n">
-        <v>0.004435660957400056</v>
+        <v>0.00406602254428344</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.006053484314353888</v>
+        <v>-0.0055490272881576624</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>-0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="4">
@@ -1158,7 +1158,7 @@
         <v>-0.001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="5">
@@ -1204,7 +1204,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="7">
@@ -1278,7 +1278,7 @@
         <v>6.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01716641062142102</v>
+        <v>-0.01573587640296928</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>12.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.016082195973500357</v>
+        <v>0.014742012975708624</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.021198555981164685</v>
+        <v>-0.019432009649400922</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>4.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.015560913549753391</v>
+        <v>0.014264170753940625</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1401,10 +1401,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9775985574649575</v>
+        <v>0.9775985574649578</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7742271196849713</v>
+        <v>0.7742271196849784</v>
       </c>
     </row>
     <row r="3">
@@ -1421,10 +1421,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9673680166633086</v>
+        <v>0.9673680166633091</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4906939940408609</v>
+        <v>0.4906939940408726</v>
       </c>
     </row>
     <row r="4">
@@ -1441,10 +1441,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9172222948693614</v>
+        <v>0.9172222948693615</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02594525937097243</v>
+        <v>0.025945259370972616</v>
       </c>
     </row>
     <row r="5">
@@ -1461,10 +1461,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9727411984168522</v>
+        <v>0.9727411984168529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6360437395183753</v>
+        <v>0.6360437395183947</v>
       </c>
     </row>
     <row r="6">
@@ -1481,10 +1481,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9485337726021092</v>
+        <v>0.9485337726021069</v>
       </c>
       <c r="F6" t="n">
-        <v>0.16765738721981627</v>
+        <v>0.16765738721979373</v>
       </c>
     </row>
     <row r="7">
@@ -1501,10 +1501,10 @@
         <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9726145596728585</v>
+        <v>0.9726145596728574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6324464828515294</v>
+        <v>0.6324464828514966</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1694,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4446649451196381</v>
+        <v>0.4446649451196443</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1732,7 +1732,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8439429983858048</v>
+        <v>-0.8439429983858046</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1770,7 +1770,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.4633216427270455</v>
+        <v>-1.4633216427270535</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>

--- a/statistics/R/roiObjectLvl_Within-PLI_gamma_A/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_gamma_A/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.010640881564794646</v>
+        <v>0.011608234434321407</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002446828533785056</v>
+        <v>0.002669267491401839</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.006394380254829052</v>
+        <v>-0.006975687550722587</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007774655756022181</v>
+        <v>0.008481442642933268</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.003207928702882057</v>
+        <v>-0.0034995585849622313</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006260100022719567</v>
+        <v>0.006829200024784959</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009156265834299349</v>
+        <v>0.009988653637417466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0016966690057665934</v>
+        <v>0.0018509116426544125</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.004832005265874545</v>
+        <v>-0.005271278471863039</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00996968835843512</v>
+        <v>0.01087602366374743</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0072311533308975495</v>
+        <v>-0.007888530906433738</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0037758085690416388</v>
+        <v>-0.004119063893499947</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003580100926648261</v>
+        <v>0.0039055646472526684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0015500708292470466</v>
+        <v>0.0016909863591786367</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.005621440880784895</v>
+        <v>-0.006132480960856279</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004593316640418038</v>
+        <v>0.0050108908804561425</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.8414938311965843E-4</v>
+        <v>-3.0998114522143294E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004223705310661796</v>
+        <v>0.0046076785207219695</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005605672220579033</v>
+        <v>0.006115278786086281</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0015436455653846382</v>
+        <v>-0.001683976980419638</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.004908860315038899</v>
+        <v>-0.005355120343678771</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.016302096767072588</v>
+        <v>-0.017784105564079222</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01218792921758069</v>
+        <v>0.013295922782815328</v>
       </c>
       <c r="H5" t="n">
-        <v>0.014264170753940625</v>
+        <v>0.015560913549753391</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0032141753156246233</v>
+        <v>-0.0035063730715905184</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0060553182972147845</v>
+        <v>-0.006605801778779702</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01337475115943021</v>
+        <v>0.014590637628469377</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009444421891139726</v>
+        <v>0.010303005699425188</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002665420522563383</v>
+        <v>0.002907731479159986</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.004151429725101269</v>
+        <v>-0.004528832427383167</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00105130407108181</v>
+        <v>-0.0011468771684528256</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01573587640296928</v>
+        <v>-0.01716641062142102</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.006000212521951626</v>
+        <v>-0.006545686387583599</v>
       </c>
       <c r="F7" t="n">
-        <v>0.010904071773636975</v>
+        <v>0.011895351025785816</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.002628403414505931</v>
+        <v>-0.0028673491794609374</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005884463286119551</v>
+        <v>0.006419414493948644</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.002023900041802751</v>
+        <v>-0.002207890954693925</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003448382222536822</v>
+        <v>0.0037618715154947024</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006604148637447432</v>
+        <v>0.007204525786306315</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0033897038727956907</v>
+        <v>-0.003697858770322582</v>
       </c>
       <c r="G8" t="n">
-        <v>0.006023792203916384</v>
+        <v>0.006571409676999734</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0023924945045114</v>
+        <v>0.002609994004921512</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.004247176518462736</v>
+        <v>-0.004633283474686611</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.002942757280565367</v>
+        <v>-0.003210280669707688</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005396108816825007</v>
+        <v>0.005886664163809063</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001655447471527599</v>
+        <v>-0.0018059426962118708</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007374623103523298</v>
+        <v>0.008045043385661782</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0033330693211826856</v>
+        <v>-0.0036360756231084146</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005957310460416032</v>
+        <v>0.006498884138635669</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.006526733500417797</v>
+        <v>-0.0071200729095466375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.006714211993715108</v>
+        <v>0.007324594902234666</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.5271809206768294E-5</v>
+        <v>-1.6660155498310347E-5</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.008039505171147654</v>
+        <v>-0.00877036927761568</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004013489453752517</v>
+        <v>0.00437835213136642</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.84931989642107E-4</v>
+        <v>8.562894432459778E-4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0054764023585534005</v>
+        <v>0.005974257118421894</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.005060961582700724</v>
+        <v>-0.005521048999309858</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.00355005626744756</v>
+        <v>-0.00387278865539728</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0030337014032665865</v>
+        <v>0.0033094924399272307</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0012414003959897724</v>
+        <v>-0.0013542549774433754</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.004673267306753243</v>
+        <v>-0.005098109789185318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.010059986556935477</v>
+        <v>0.01097453078938418</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.004728308610296161</v>
+        <v>-0.005158154847595825</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0015384172992868872</v>
+        <v>-0.0016782734174038694</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.003780930697406648</v>
+        <v>-0.004124651669898199</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0030333327434776125</v>
+        <v>0.0033090902656119636</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0023254089329603767</v>
+        <v>-0.0025368097450476634</v>
       </c>
       <c r="D13" t="n">
-        <v>0.014742012975708624</v>
+        <v>0.016082195973500357</v>
       </c>
       <c r="E13" t="n">
-        <v>-9.563461794583339E-4</v>
+        <v>-0.0010432867412272229</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0067999482401656375</v>
+        <v>0.007418125352908006</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0059737017768418665</v>
+        <v>-0.006516765574736572</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001473513773284918</v>
+        <v>0.0016074695708562792</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.009096334454339994</v>
+        <v>-0.009923273950189021</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0030241162487538997</v>
+        <v>0.0032990359077315623</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0010714574379170894</v>
+        <v>-0.0011688626595459106</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006950844706599124</v>
+        <v>0.00758273967992637</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.006343299821560677</v>
+        <v>-0.006919963441702565</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.007107900374808546</v>
+        <v>-0.00775407313615481</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.010068251010280027</v>
+        <v>0.01098354655666911</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0017985333504657308</v>
+        <v>-0.0019620363823262543</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.002048037623389093</v>
+        <v>-0.002234222861878965</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0053958829702537014</v>
+        <v>-0.005886417785731263</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004748957114686009</v>
+        <v>0.005180680488748368</v>
       </c>
       <c r="H15" t="n">
-        <v>0.002939967018641937</v>
+        <v>0.0032072367476093933</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0020671335586794626</v>
+        <v>-0.002255054791286709</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.911121402540574E-4</v>
+        <v>-4.266677893680071E-4</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.007026934563166498</v>
+        <v>-0.007665746796181594</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0043072657489133526</v>
+        <v>-0.004698835362450915</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0022647812502885334</v>
+        <v>-0.00247067045486013</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0023044778834776236</v>
+        <v>-0.002513975872884683</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006688041561229985</v>
+        <v>0.007296045339523577</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0040747140452926656</v>
+        <v>-0.004445142594864726</v>
       </c>
       <c r="E17" t="n">
-        <v>4.227830314786629E-4</v>
+        <v>4.612178525222055E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.688590645109513E-5</v>
+        <v>-4.023917067400018E-5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006982137416920053</v>
+        <v>0.0076168771820945835</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0010686151990500492</v>
+        <v>0.0011657620353273113</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001957263327400635</v>
+        <v>0.002135196357164304</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0026005316950070134</v>
+        <v>-0.002836943667280392</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0026778760350087416</v>
+        <v>0.0029213193109185742</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.008339244432594789</v>
+        <v>-0.009097357562830713</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005526046972734344</v>
+        <v>0.006028414879346564</v>
       </c>
       <c r="H18" t="n">
-        <v>0.004064105513380864</v>
+        <v>0.004433569650960992</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00379092860976922</v>
+        <v>0.004135558483384594</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004980538773127097</v>
+        <v>0.0054333150252295626</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002364532406802941</v>
+        <v>0.0025794898983305115</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001867146553510765</v>
+        <v>0.0020368871492844887</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.973667464350824E-4</v>
+        <v>-6.516728142927641E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.89383853899997E-4</v>
+        <v>-8.611460224363376E-4</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.005867273206817722</v>
+        <v>-0.006400661680164815</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0014500239042573027</v>
+        <v>-0.0015818442591898074</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.005579358689262057</v>
+        <v>-0.006086573115558602</v>
       </c>
       <c r="F20" t="n">
-        <v>0.007431856057175737</v>
+        <v>0.008107479335100892</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.005103726118218882</v>
+        <v>-0.005567701219875126</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002810834478719021</v>
+        <v>0.0030663648858753056</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.00368440585831889</v>
+        <v>-0.004019351845438807</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.012016853883749401</v>
+        <v>-0.01310929514590839</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.007354145035304474</v>
+        <v>-0.008022703674877577</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.006712887290690472</v>
+        <v>-0.007323149771662346</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.002808576392672457</v>
+        <v>-0.003063901519279072</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2371962661819085E-4</v>
+        <v>4.622395926743572E-4</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.454705344730195E-4</v>
+        <v>8.132405830615086E-4</v>
       </c>
       <c r="D22" t="n">
-        <v>-9.753893170258016E-4</v>
+        <v>-0.0010640610731190436</v>
       </c>
       <c r="E22" t="n">
-        <v>2.68820015196819E-4</v>
+        <v>2.932581983965399E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.007252964750609159</v>
+        <v>-0.007912325182482763</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0022971507443557276</v>
+        <v>0.0025059826302062105</v>
       </c>
       <c r="H22" t="n">
-        <v>-3.1095622883060836E-4</v>
+        <v>-3.392249769061384E-4</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0022099609961929445</v>
+        <v>0.0024108665413013486</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.019432009649400922</v>
+        <v>-0.021198555981164685</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.003995475534377124</v>
+        <v>-0.004358700582956843</v>
       </c>
       <c r="F23" t="n">
-        <v>0.012749670358366022</v>
+        <v>0.01390873130003567</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00812143460884876</v>
+        <v>0.008859746846016814</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008155134034289996</v>
+        <v>0.008896509855589124</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>8.385714907453989E-4</v>
+        <v>9.148052626313519E-4</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.007873027307937028</v>
+        <v>-0.008588757063204028</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.003479411088106704</v>
+        <v>-0.0037957211870255497</v>
       </c>
       <c r="F24" t="n">
-        <v>6.628891068250209E-4</v>
+        <v>7.231517529000531E-4</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005020389602769473</v>
+        <v>-0.005476788657566678</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0016332986870744165</v>
+        <v>-0.0017817803858993647</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0010706519327209063</v>
+        <v>-0.0011679839266046377</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0017789528659093862</v>
+        <v>0.0019406758537193203</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003788279150597984</v>
+        <v>0.0041326681642887275</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002459757894540504</v>
+        <v>0.002683372248589652</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004052553534955178</v>
+        <v>0.00442096749267841</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0015687513989144641</v>
+        <v>0.0017113651624521276</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.007676615720729585</v>
+        <v>0.008374489877159608</v>
       </c>
       <c r="D26" t="n">
-        <v>0.007867339389078506</v>
+        <v>0.008582552060812904</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0027675211498740804</v>
+        <v>0.00301911398168081</v>
       </c>
       <c r="F26" t="n">
-        <v>0.006459452742449634</v>
+        <v>0.007046675719036</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004556020558436</v>
+        <v>0.004970204245566559</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0026308899834759925</v>
+        <v>-0.0028700618001556433</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0011806814819782102</v>
+        <v>0.0012880161621580538</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0024853717089288047</v>
+        <v>0.0027113145915586834</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004751557236029297</v>
+        <v>0.005183516984759232</v>
       </c>
       <c r="F27" t="n">
-        <v>1.2279360105448E-4</v>
+        <v>1.339566556957661E-4</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0055689747718733335</v>
+        <v>-0.00607524520567998</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.0038913136739223697</v>
+        <v>-0.004245069462460768</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.007196328611960082</v>
+        <v>0.00785054030395646</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.003184761599908853</v>
+        <v>-0.003474285381718789</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0072266883861087094</v>
+        <v>-0.007883660057573127</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.003109184495054068</v>
+        <v>-0.0033918376309680642</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.005222707752260941</v>
+        <v>-0.005697499366102837</v>
       </c>
       <c r="H28" t="n">
-        <v>0.001469065887224466</v>
+        <v>0.001602617331517564</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0023526509510490984</v>
+        <v>-0.0025665283102354053</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.004789807326039175</v>
+        <v>-0.005225244355679087</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.003666429542033431</v>
+        <v>-0.003999741318581912</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.097142543770392E-4</v>
+        <v>-9.92415550229525E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.002935966134723883</v>
+        <v>0.003202872146971514</v>
       </c>
       <c r="H29" t="n">
-        <v>0.00928801472279732</v>
+        <v>0.010132379697597088</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.003661794558533729</v>
+        <v>0.003994684972945806</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0017573862682558061</v>
+        <v>-0.0019171486562790663</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002440263762727518</v>
+        <v>0.0026621059229754718</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.006755513277252406</v>
+        <v>-0.007369650847911746</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00406602254428344</v>
+        <v>0.004435660957400056</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.0055490272881576624</v>
+        <v>-0.006053484314353888</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         <v>29.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>-0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="4">
@@ -1158,7 +1158,7 @@
         <v>-0.001</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="5">
@@ -1204,7 +1204,7 @@
         <v>0.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="7">
@@ -1278,7 +1278,7 @@
         <v>6.0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01573587640296928</v>
+        <v>-0.01716641062142102</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>12.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.014742012975708624</v>
+        <v>0.016082195973500357</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1324,7 +1324,7 @@
         <v>22.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.019432009649400922</v>
+        <v>-0.021198555981164685</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -1347,7 +1347,7 @@
         <v>4.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.014264170753940625</v>
+        <v>0.015560913549753391</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1401,10 +1401,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9775985574649578</v>
+        <v>0.9775985574649575</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7742271196849784</v>
+        <v>0.7742271196849713</v>
       </c>
     </row>
     <row r="3">
@@ -1421,10 +1421,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9673680166633091</v>
+        <v>0.9673680166633086</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4906939940408726</v>
+        <v>0.4906939940408609</v>
       </c>
     </row>
     <row r="4">
@@ -1441,10 +1441,10 @@
         <v>47</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9172222948693615</v>
+        <v>0.9172222948693614</v>
       </c>
       <c r="F4" t="n">
-        <v>0.025945259370972616</v>
+        <v>0.02594525937097243</v>
       </c>
     </row>
     <row r="5">
@@ -1461,10 +1461,10 @@
         <v>47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9727411984168529</v>
+        <v>0.9727411984168522</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6360437395183947</v>
+        <v>0.6360437395183753</v>
       </c>
     </row>
     <row r="6">
@@ -1481,10 +1481,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9485337726021069</v>
+        <v>0.9485337726021092</v>
       </c>
       <c r="F6" t="n">
-        <v>0.16765738721979373</v>
+        <v>0.16765738721981627</v>
       </c>
     </row>
     <row r="7">
@@ -1501,10 +1501,10 @@
         <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9726145596728574</v>
+        <v>0.9726145596728585</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6324464828514966</v>
+        <v>0.6324464828515294</v>
       </c>
     </row>
   </sheetData>
@@ -1694,7 +1694,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4446649451196443</v>
+        <v>0.4446649451196381</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1732,7 +1732,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.8439429983858046</v>
+        <v>-0.8439429983858048</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1770,7 +1770,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.4633216427270535</v>
+        <v>-1.4633216427270455</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>
